--- a/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll2_l40_HTrue_c10.xlsx
+++ b/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll2_l40_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>14.96092172463735</v>
+        <v>14.00099752499507</v>
       </c>
       <c r="I2" t="n">
         <v>400</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1769,6 +1769,41 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1783,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1863,34 +1898,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1898,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1933,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.828125</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1968,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.609375</v>
+        <v>9.953125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2003,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.431640625</v>
+        <v>15.3203125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2038,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.351318359375</v>
+        <v>16.9189453125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2073,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.81109619140625</v>
+        <v>20.21142578125</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2108,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.49661254882812</v>
+        <v>21.7835693359375</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2143,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.37231826782227</v>
+        <v>21.44627380371094</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2178,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.42919635772705</v>
+        <v>20.24745941162109</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2213,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9513783454895</v>
+        <v>27.74745941162109</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2240,6 +2275,41 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22.88439726829529</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
